--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1759652.808260017</v>
+        <v>1758925.539666089</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1734214.142967358</v>
+        <v>1734214.14296736</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.9059052411878</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>211.8551051983902</v>
       </c>
       <c r="E11" t="n">
         <v>239.102433649969</v>
       </c>
       <c r="F11" t="n">
-        <v>264.0481093194187</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9665480977252</v>
+        <v>271.9665480977251</v>
       </c>
       <c r="H11" t="n">
-        <v>67.24151812578081</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>78.0430356557133</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>108.4770562459343</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>206.4130322951202</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9031642561763</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>193.3104675474051</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.70524722757457</v>
+        <v>115.2462522819785</v>
       </c>
       <c r="C12" t="n">
-        <v>29.88056256602297</v>
+        <v>29.88056256602295</v>
       </c>
       <c r="D12" t="n">
-        <v>4.617129142345988</v>
+        <v>4.617129142345959</v>
       </c>
       <c r="E12" t="n">
-        <v>14.81714403310818</v>
+        <v>14.81714403310815</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>2.241275971091085</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.27374157744548</v>
       </c>
       <c r="S12" t="n">
-        <v>118.5850180479736</v>
+        <v>23.80408096185288</v>
       </c>
       <c r="T12" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9234913358047</v>
+        <v>83.09555491351192</v>
       </c>
       <c r="V12" t="n">
-        <v>89.9726507271325</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>108.8670467386268</v>
       </c>
       <c r="X12" t="n">
-        <v>62.94504878118471</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.00404375964453</v>
+        <v>37.0040437596445</v>
       </c>
       <c r="C13" t="n">
-        <v>24.41888467633507</v>
+        <v>24.41888467633504</v>
       </c>
       <c r="D13" t="n">
-        <v>5.78753659591959</v>
+        <v>5.787536595919562</v>
       </c>
       <c r="E13" t="n">
-        <v>3.606026224276405</v>
+        <v>3.606026224276377</v>
       </c>
       <c r="F13" t="n">
-        <v>2.59311160063848</v>
+        <v>2.593111600638451</v>
       </c>
       <c r="G13" t="n">
-        <v>24.9350581397907</v>
+        <v>24.93505813979068</v>
       </c>
       <c r="H13" t="n">
-        <v>17.37224398646469</v>
+        <v>17.37224398646466</v>
       </c>
       <c r="I13" t="n">
-        <v>5.766413901243172</v>
+        <v>5.766413901243143</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.21442947422052</v>
+        <v>24.21442947422049</v>
       </c>
       <c r="S13" t="n">
-        <v>77.21550839057558</v>
+        <v>77.21550839057555</v>
       </c>
       <c r="T13" t="n">
-        <v>84.14353614874885</v>
+        <v>84.14353614874882</v>
       </c>
       <c r="U13" t="n">
         <v>143.4786573998504</v>
@@ -1591,10 +1591,10 @@
         <v>143.6950619142982</v>
       </c>
       <c r="X13" t="n">
-        <v>82.88171896674439</v>
+        <v>82.88171896674436</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.75671692980202</v>
+        <v>75.756716929802</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>239.102433649969</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>264.0481093194187</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>271.9665480977252</v>
+        <v>271.9665480977251</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>191.441719707231</v>
       </c>
       <c r="I14" t="n">
-        <v>48.05352955385971</v>
+        <v>48.05352955385968</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>54.61031803772081</v>
+        <v>54.61031803772078</v>
       </c>
       <c r="T14" t="n">
-        <v>78.04303565571333</v>
+        <v>78.0430356557133</v>
       </c>
       <c r="U14" t="n">
-        <v>108.4770562459344</v>
+        <v>108.4770562459343</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.9243220478421</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>206.4130322951202</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9031642561763</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.96348387374002</v>
+        <v>165.238117049111</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.70524722757457</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>29.88056256602297</v>
+        <v>29.88056256602295</v>
       </c>
       <c r="D15" t="n">
-        <v>4.617129142345988</v>
+        <v>4.617129142345959</v>
       </c>
       <c r="E15" t="n">
-        <v>14.81714403310818</v>
+        <v>14.81714403310815</v>
       </c>
       <c r="F15" t="n">
-        <v>2.241275971091113</v>
+        <v>2.241275971091085</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.27374157744548</v>
       </c>
       <c r="S15" t="n">
-        <v>55.79089117140931</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T15" t="n">
-        <v>199.0686223740667</v>
+        <v>56.24068595177389</v>
       </c>
       <c r="U15" t="n">
-        <v>83.09555491351195</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>89.97265072713247</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>108.8670467386268</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>154.3957644094154</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.00404375964453</v>
+        <v>37.0040437596445</v>
       </c>
       <c r="C16" t="n">
-        <v>24.41888467633507</v>
+        <v>24.41888467633504</v>
       </c>
       <c r="D16" t="n">
-        <v>5.78753659591959</v>
+        <v>5.787536595919562</v>
       </c>
       <c r="E16" t="n">
-        <v>3.606026224276405</v>
+        <v>3.606026224276377</v>
       </c>
       <c r="F16" t="n">
-        <v>2.59311160063848</v>
+        <v>2.593111600638451</v>
       </c>
       <c r="G16" t="n">
-        <v>24.9350581397907</v>
+        <v>24.93505813979068</v>
       </c>
       <c r="H16" t="n">
-        <v>17.37224398646469</v>
+        <v>17.37224398646466</v>
       </c>
       <c r="I16" t="n">
-        <v>5.766413901243172</v>
+        <v>5.766413901243143</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.21442947422052</v>
+        <v>24.21442947422049</v>
       </c>
       <c r="S16" t="n">
-        <v>77.21550839057558</v>
+        <v>77.21550839057555</v>
       </c>
       <c r="T16" t="n">
-        <v>84.14353614874885</v>
+        <v>84.14353614874882</v>
       </c>
       <c r="U16" t="n">
         <v>143.4786573998504</v>
@@ -1828,10 +1828,10 @@
         <v>143.6950619142982</v>
       </c>
       <c r="X16" t="n">
-        <v>82.88171896674439</v>
+        <v>82.88171896674436</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.75671692980202</v>
+        <v>75.756716929802</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1847,10 @@
         <v>113.9678991027804</v>
       </c>
       <c r="D17" t="n">
-        <v>103.3780489524558</v>
+        <v>103.3780489524557</v>
       </c>
       <c r="E17" t="n">
-        <v>130.6253774040347</v>
+        <v>130.6253774040346</v>
       </c>
       <c r="F17" t="n">
         <v>155.5710530734843</v>
@@ -1859,7 +1859,7 @@
         <v>163.4894918517908</v>
       </c>
       <c r="H17" t="n">
-        <v>82.96466346129662</v>
+        <v>82.9646634612966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.44726580190778</v>
+        <v>76.44726580190775</v>
       </c>
       <c r="W17" t="n">
-        <v>97.93597604918588</v>
+        <v>97.93597604918585</v>
       </c>
       <c r="X17" t="n">
         <v>118.4261080102419</v>
       </c>
       <c r="Y17" t="n">
-        <v>134.9329459878265</v>
+        <v>134.9329459878264</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>159.687980129091</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.27374157744548</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3899904926924762</v>
+        <v>0.3899904926924478</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>22.59774418488385</v>
       </c>
     </row>
     <row r="19">
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>64.45055734167019</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>160.2001804087575</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.07142543885081</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.00160115391601</v>
+        <v>35.00160115391598</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8326506556008724</v>
+        <v>0.8326506556008439</v>
       </c>
       <c r="W19" t="n">
-        <v>35.21800566836387</v>
+        <v>35.21800566836384</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>157.5793123115769</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>130.6253774040346</v>
       </c>
       <c r="F20" t="n">
-        <v>155.5710530734843</v>
+        <v>155.5710530734837</v>
       </c>
       <c r="G20" t="n">
         <v>163.4894918517908</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>133.6010617834344</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U21" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V21" t="n">
-        <v>158.8553620722841</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0.3899904926924478</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.27374157744548</v>
       </c>
       <c r="S24" t="n">
         <v>166.6320173841457</v>
@@ -2451,19 +2451,19 @@
         <v>199.0686223740667</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9234913358047</v>
+        <v>12.3699508115494</v>
       </c>
       <c r="V24" t="n">
-        <v>186.9603891443969</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3899904926924762</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>78.21677510385847</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.00160115391601</v>
+        <v>259.6523389043436</v>
       </c>
       <c r="V25" t="n">
         <v>0.8326506556008724</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.84006608183384</v>
+        <v>164.789256617057</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>23.01538142028224</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>61.07353663086776</v>
+        <v>83.27374157744548</v>
       </c>
       <c r="S27" t="n">
-        <v>16.93889981611218</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T27" t="n">
-        <v>49.37550480603318</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U27" t="n">
-        <v>76.23037376777121</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V27" t="n">
-        <v>83.10746958139177</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2810,7 +2810,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I29" t="n">
-        <v>41.188348408119</v>
+        <v>41.18834840811897</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.7451368919801</v>
+        <v>47.74513689198007</v>
       </c>
       <c r="T29" t="n">
-        <v>71.17785450997262</v>
+        <v>71.17785450997259</v>
       </c>
       <c r="U29" t="n">
-        <v>101.6118751001937</v>
+        <v>101.6118751001936</v>
       </c>
       <c r="V29" t="n">
         <v>178.0591409021014</v>
@@ -2855,7 +2855,7 @@
         <v>199.5478511493795</v>
       </c>
       <c r="X29" t="n">
-        <v>220.0379831104356</v>
+        <v>220.0379831104355</v>
       </c>
       <c r="Y29" t="n">
         <v>236.5448210880201</v>
@@ -2877,13 +2877,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>7.951962887367472</v>
+        <v>7.951962887367443</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>83.77786654802996</v>
+        <v>0.5041249705844428</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.27374157744548</v>
       </c>
       <c r="S30" t="n">
         <v>166.6320173841457</v>
@@ -2934,10 +2934,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>56.079867635444</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>55.98957820927086</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.13886261390383</v>
+        <v>30.1388626139038</v>
       </c>
       <c r="C31" t="n">
-        <v>17.55370353059436</v>
+        <v>17.55370353059433</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.06987699405</v>
+        <v>18.06987699404997</v>
       </c>
       <c r="H31" t="n">
-        <v>10.50706284072398</v>
+        <v>10.50706284072395</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.34924832847981</v>
+        <v>17.34924832847978</v>
       </c>
       <c r="S31" t="n">
-        <v>70.35032724483487</v>
+        <v>70.35032724483484</v>
       </c>
       <c r="T31" t="n">
-        <v>77.27835500300814</v>
+        <v>77.27835500300812</v>
       </c>
       <c r="U31" t="n">
         <v>136.6134762541097</v>
@@ -3013,10 +3013,10 @@
         <v>136.8298807685575</v>
       </c>
       <c r="X31" t="n">
-        <v>76.01653782100368</v>
+        <v>76.01653782100365</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.89153578406132</v>
+        <v>68.89153578406129</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I32" t="n">
-        <v>41.18834840811897</v>
+        <v>41.18834840811898</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.74513689198008</v>
+        <v>47.74513689198007</v>
       </c>
       <c r="T32" t="n">
-        <v>71.17785450997258</v>
+        <v>71.17785450997259</v>
       </c>
       <c r="U32" t="n">
         <v>101.6118751001936</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>16.84006608183384</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>23.01538142028224</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,13 +3117,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>40.58815969309248</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.27374157744548</v>
       </c>
       <c r="S33" t="n">
-        <v>16.93889981611218</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T33" t="n">
-        <v>49.37550480603318</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U33" t="n">
-        <v>177.2536852218593</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3266,22 +3266,22 @@
         <v>145.9806268148778</v>
       </c>
       <c r="C35" t="n">
-        <v>128.5196769224048</v>
+        <v>128.5196769224047</v>
       </c>
       <c r="D35" t="n">
-        <v>117.9298267720802</v>
+        <v>117.9298267720801</v>
       </c>
       <c r="E35" t="n">
         <v>145.177155223659</v>
       </c>
       <c r="F35" t="n">
-        <v>170.1228308931087</v>
+        <v>170.1228308931086</v>
       </c>
       <c r="G35" t="n">
-        <v>178.0412696714152</v>
+        <v>178.0412696714151</v>
       </c>
       <c r="H35" t="n">
-        <v>97.51644128092099</v>
+        <v>97.51644128092093</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.55177781962436</v>
+        <v>14.55177781962431</v>
       </c>
       <c r="V35" t="n">
-        <v>90.99904362153214</v>
+        <v>90.99904362153208</v>
       </c>
       <c r="W35" t="n">
         <v>112.4877538688102</v>
       </c>
       <c r="X35" t="n">
-        <v>132.9778858298663</v>
+        <v>132.9778858298662</v>
       </c>
       <c r="Y35" t="n">
         <v>149.4847238074508</v>
@@ -3351,10 +3351,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>24.78912604886501</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6320173841457</v>
+        <v>87.61458030271277</v>
       </c>
       <c r="T36" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>14.94176831231684</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>180.9954042915546</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.55337897354038</v>
+        <v>49.55337897354032</v>
       </c>
       <c r="V37" t="n">
-        <v>15.38442847522523</v>
+        <v>15.38442847522518</v>
       </c>
       <c r="W37" t="n">
-        <v>49.76978348798824</v>
+        <v>49.76978348798818</v>
       </c>
       <c r="X37" t="n">
-        <v>180.9954042915545</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3582,16 +3582,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>5.567415448470399</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>83.27374157744548</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U39" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>21.78011042943687</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>180.9954042915545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>15.38442847522523</v>
       </c>
       <c r="W40" t="n">
-        <v>230.7651877795427</v>
+        <v>49.76978348798824</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>161.8628695854745</v>
       </c>
       <c r="C41" t="n">
-        <v>144.4019196930015</v>
+        <v>144.4019196930014</v>
       </c>
       <c r="D41" t="n">
         <v>133.8120695426769</v>
@@ -3749,13 +3749,13 @@
         <v>161.0593979942557</v>
       </c>
       <c r="F41" t="n">
-        <v>186.0050736637054</v>
+        <v>186.0050736637053</v>
       </c>
       <c r="G41" t="n">
         <v>193.9235124420118</v>
       </c>
       <c r="H41" t="n">
-        <v>113.3986840515177</v>
+        <v>113.3986840515176</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.43402059022105</v>
+        <v>30.43402059022102</v>
       </c>
       <c r="V41" t="n">
         <v>106.8812863921288</v>
@@ -3803,7 +3803,7 @@
         <v>128.3699966394069</v>
       </c>
       <c r="X41" t="n">
-        <v>148.860128600463</v>
+        <v>148.8601286004629</v>
       </c>
       <c r="Y41" t="n">
         <v>165.3669665780475</v>
@@ -3819,16 +3819,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0715778366251</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>33.48556971972418</v>
       </c>
       <c r="U42" t="n">
-        <v>169.7297669752522</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>11.92961507141916</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>128.5099926687333</v>
+        <v>6.100500493035516</v>
       </c>
       <c r="U43" t="n">
-        <v>65.43562174413707</v>
+        <v>65.43562174413704</v>
       </c>
       <c r="V43" t="n">
-        <v>31.26667124582193</v>
+        <v>153.6761634215199</v>
       </c>
       <c r="W43" t="n">
-        <v>65.65202625858493</v>
+        <v>65.6520262585849</v>
       </c>
       <c r="X43" t="n">
-        <v>4.838683311031076</v>
+        <v>4.838683311031048</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4056,13 +4056,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>86.22128435844309</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4107,22 +4107,22 @@
         <v>166.6320173841457</v>
       </c>
       <c r="T45" t="n">
-        <v>82.29514456896455</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U45" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>11.92961507141919</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>30.82401108291353</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4189,7 +4189,7 @@
         <v>6.100500493035544</v>
       </c>
       <c r="U46" t="n">
-        <v>65.43562174413707</v>
+        <v>187.8451139198349</v>
       </c>
       <c r="V46" t="n">
         <v>31.26667124582193</v>
@@ -4198,7 +4198,7 @@
         <v>65.65202625858493</v>
       </c>
       <c r="X46" t="n">
-        <v>127.2481754867289</v>
+        <v>4.838683311031076</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>877.8548655770364</v>
+        <v>757.2139340146031</v>
       </c>
       <c r="C11" t="n">
-        <v>877.8548655770364</v>
+        <v>757.2139340146031</v>
       </c>
       <c r="D11" t="n">
-        <v>877.8548655770364</v>
+        <v>543.2188782586534</v>
       </c>
       <c r="E11" t="n">
-        <v>636.337255829593</v>
+        <v>301.7012685112099</v>
       </c>
       <c r="F11" t="n">
-        <v>369.6219938907863</v>
+        <v>301.7012685112099</v>
       </c>
       <c r="G11" t="n">
-        <v>94.9083089435893</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H11" t="n">
         <v>26.98758356401273</v>
@@ -5042,7 +5042,7 @@
         <v>57.86375137082624</v>
       </c>
       <c r="K11" t="n">
-        <v>224.8839273401038</v>
+        <v>57.86375137082624</v>
       </c>
       <c r="L11" t="n">
         <v>307.9786664140232</v>
@@ -5069,22 +5069,22 @@
         <v>1349.379178200636</v>
       </c>
       <c r="T11" t="n">
-        <v>1349.379178200636</v>
+        <v>1270.547829053451</v>
       </c>
       <c r="U11" t="n">
-        <v>1349.379178200636</v>
+        <v>1160.975044966649</v>
       </c>
       <c r="V11" t="n">
-        <v>1349.379178200636</v>
+        <v>1160.975044966649</v>
       </c>
       <c r="W11" t="n">
-        <v>1349.379178200636</v>
+        <v>952.4770325473355</v>
       </c>
       <c r="X11" t="n">
-        <v>1120.184062790358</v>
+        <v>952.4770325473355</v>
       </c>
       <c r="Y11" t="n">
-        <v>1120.184062790358</v>
+        <v>757.2139340146031</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>304.1773387969313</v>
+        <v>79.06446408175833</v>
       </c>
       <c r="C12" t="n">
-        <v>273.994952366605</v>
+        <v>48.88207765143212</v>
       </c>
       <c r="D12" t="n">
-        <v>269.3311855561545</v>
+        <v>44.21831084098166</v>
       </c>
       <c r="E12" t="n">
-        <v>254.3643734014998</v>
+        <v>29.25149868632696</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H12" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I12" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J12" t="n">
-        <v>26.98758356401273</v>
+        <v>51.68383790382258</v>
       </c>
       <c r="K12" t="n">
-        <v>195.8182589070749</v>
+        <v>134.5761232077519</v>
       </c>
       <c r="L12" t="n">
-        <v>484.2363331920536</v>
+        <v>134.5761232077519</v>
       </c>
       <c r="M12" t="n">
-        <v>818.2076797967111</v>
+        <v>468.5474698124095</v>
       </c>
       <c r="N12" t="n">
-        <v>1036.571493402668</v>
+        <v>802.518816417067</v>
       </c>
       <c r="O12" t="n">
-        <v>1349.379178200636</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="P12" t="n">
         <v>1349.379178200636</v>
@@ -5142,28 +5142,28 @@
         <v>1349.379178200636</v>
       </c>
       <c r="R12" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S12" t="n">
-        <v>1229.596331687532</v>
+        <v>1241.219761494275</v>
       </c>
       <c r="T12" t="n">
-        <v>1028.51691514807</v>
+        <v>1040.140344954813</v>
       </c>
       <c r="U12" t="n">
-        <v>800.3113683442272</v>
+        <v>956.2054410017709</v>
       </c>
       <c r="V12" t="n">
-        <v>709.4299029632853</v>
+        <v>721.0533327700282</v>
       </c>
       <c r="W12" t="n">
-        <v>599.4631890858844</v>
+        <v>611.0866188926274</v>
       </c>
       <c r="X12" t="n">
-        <v>535.8823317311524</v>
+        <v>403.2351186870945</v>
       </c>
       <c r="Y12" t="n">
-        <v>328.1220329661985</v>
+        <v>195.4748199221406</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.3201847000411</v>
+        <v>112.3201847000409</v>
       </c>
       <c r="C13" t="n">
-        <v>87.65464462293501</v>
+        <v>87.65464462293484</v>
       </c>
       <c r="D13" t="n">
-        <v>81.80864806140006</v>
+        <v>81.80864806139992</v>
       </c>
       <c r="E13" t="n">
-        <v>78.16619732980773</v>
+        <v>78.16619732980762</v>
       </c>
       <c r="F13" t="n">
-        <v>75.54689268269816</v>
+        <v>75.54689268269807</v>
       </c>
       <c r="G13" t="n">
-        <v>50.35996526876815</v>
+        <v>50.35996526876809</v>
       </c>
       <c r="H13" t="n">
-        <v>32.81224407031897</v>
+        <v>32.81224407031894</v>
       </c>
       <c r="I13" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J13" t="n">
-        <v>33.58659147494515</v>
+        <v>91.91899215927219</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1622629044768</v>
+        <v>237.4946635888038</v>
       </c>
       <c r="L13" t="n">
-        <v>381.432215209553</v>
+        <v>439.7646158938801</v>
       </c>
       <c r="M13" t="n">
-        <v>456.0005299968672</v>
+        <v>522.4012411813291</v>
       </c>
       <c r="N13" t="n">
-        <v>675.6300504068406</v>
+        <v>742.0307615913025</v>
       </c>
       <c r="O13" t="n">
-        <v>873.2713526261967</v>
+        <v>798.2724067525888</v>
       </c>
       <c r="P13" t="n">
-        <v>897.8751138772329</v>
+        <v>822.876168003625</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8751138772329</v>
+        <v>897.8751138772326</v>
       </c>
       <c r="R13" t="n">
-        <v>873.4160942063031</v>
+        <v>873.4160942063028</v>
       </c>
       <c r="S13" t="n">
-        <v>795.4206311855197</v>
+        <v>795.4206311855194</v>
       </c>
       <c r="T13" t="n">
-        <v>710.4271603281976</v>
+        <v>710.4271603281973</v>
       </c>
       <c r="U13" t="n">
-        <v>565.4992235606719</v>
+        <v>565.4992235606716</v>
       </c>
       <c r="V13" t="n">
-        <v>455.0853782055858</v>
+        <v>455.0853782055855</v>
       </c>
       <c r="W13" t="n">
-        <v>309.9388510194259</v>
+        <v>309.9388510194257</v>
       </c>
       <c r="X13" t="n">
-        <v>226.2199429722094</v>
+        <v>226.2199429722091</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.69800667948</v>
+        <v>149.6980066794798</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>858.4730589387326</v>
+        <v>543.6156617042307</v>
       </c>
       <c r="C14" t="n">
-        <v>858.4730589387326</v>
+        <v>543.6156617042307</v>
       </c>
       <c r="D14" t="n">
-        <v>858.4730589387326</v>
+        <v>543.6156617042307</v>
       </c>
       <c r="E14" t="n">
-        <v>616.9554491912892</v>
+        <v>543.6156617042307</v>
       </c>
       <c r="F14" t="n">
-        <v>350.2401872524825</v>
+        <v>543.6156617042307</v>
       </c>
       <c r="G14" t="n">
-        <v>75.52650230528535</v>
+        <v>268.9019767570335</v>
       </c>
       <c r="H14" t="n">
-        <v>75.52650230528535</v>
+        <v>75.52650230528505</v>
       </c>
       <c r="I14" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J14" t="n">
-        <v>26.98758356401273</v>
+        <v>57.86375137082624</v>
       </c>
       <c r="K14" t="n">
-        <v>194.0077595332903</v>
+        <v>224.8839273401038</v>
       </c>
       <c r="L14" t="n">
-        <v>307.9786664140232</v>
+        <v>352.424623761815</v>
       </c>
       <c r="M14" t="n">
-        <v>613.3066246185008</v>
+        <v>657.7525819662926</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9431108514663</v>
+        <v>953.3890681992581</v>
       </c>
       <c r="O14" t="n">
-        <v>1142.916623706846</v>
+        <v>1187.362581054638</v>
       </c>
       <c r="P14" t="n">
-        <v>1304.933220852845</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q14" t="n">
         <v>1349.379178200636</v>
@@ -5312,16 +5312,16 @@
         <v>1105.81310755481</v>
       </c>
       <c r="V14" t="n">
-        <v>1105.81310755481</v>
+        <v>919.02086306204</v>
       </c>
       <c r="W14" t="n">
-        <v>1105.81310755481</v>
+        <v>710.5228506427266</v>
       </c>
       <c r="X14" t="n">
-        <v>876.6179921445306</v>
+        <v>710.5228506427266</v>
       </c>
       <c r="Y14" t="n">
-        <v>858.4730589387326</v>
+        <v>543.6156617042307</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.06446408175844</v>
+        <v>79.06446408175833</v>
       </c>
       <c r="C15" t="n">
-        <v>48.88207765143221</v>
+        <v>48.88207765143212</v>
       </c>
       <c r="D15" t="n">
-        <v>44.21831084098172</v>
+        <v>44.21831084098166</v>
       </c>
       <c r="E15" t="n">
-        <v>29.25149868632699</v>
+        <v>29.25149868632696</v>
       </c>
       <c r="F15" t="n">
         <v>26.98758356401273</v>
@@ -5358,49 +5358,49 @@
         <v>51.68383790382258</v>
       </c>
       <c r="K15" t="n">
-        <v>51.68383790382258</v>
+        <v>220.5145132468847</v>
       </c>
       <c r="L15" t="n">
-        <v>340.1019121888013</v>
+        <v>508.9325875318634</v>
       </c>
       <c r="M15" t="n">
-        <v>674.0732587934588</v>
+        <v>508.9325875318634</v>
       </c>
       <c r="N15" t="n">
-        <v>1008.044605398116</v>
+        <v>842.903934136521</v>
       </c>
       <c r="O15" t="n">
-        <v>1320.852290196085</v>
+        <v>1011.566254371284</v>
       </c>
       <c r="P15" t="n">
-        <v>1320.852290196085</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q15" t="n">
         <v>1349.379178200636</v>
       </c>
       <c r="R15" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S15" t="n">
-        <v>1293.02474267396</v>
+        <v>1096.949118643474</v>
       </c>
       <c r="T15" t="n">
-        <v>1091.945326134499</v>
+        <v>1040.140344954813</v>
       </c>
       <c r="U15" t="n">
-        <v>1008.010422181457</v>
+        <v>811.93479815097</v>
       </c>
       <c r="V15" t="n">
-        <v>772.8583139497141</v>
+        <v>721.0533327700281</v>
       </c>
       <c r="W15" t="n">
-        <v>518.6209572215124</v>
+        <v>611.0866188926273</v>
       </c>
       <c r="X15" t="n">
-        <v>310.7694570159796</v>
+        <v>403.2351186870944</v>
       </c>
       <c r="Y15" t="n">
-        <v>103.0091582510257</v>
+        <v>247.2798011018264</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.3201847000411</v>
+        <v>112.3201847000409</v>
       </c>
       <c r="C16" t="n">
-        <v>87.65464462293501</v>
+        <v>87.65464462293484</v>
       </c>
       <c r="D16" t="n">
-        <v>81.80864806140006</v>
+        <v>81.80864806139992</v>
       </c>
       <c r="E16" t="n">
-        <v>78.16619732980773</v>
+        <v>78.16619732980762</v>
       </c>
       <c r="F16" t="n">
-        <v>75.54689268269816</v>
+        <v>75.54689268269807</v>
       </c>
       <c r="G16" t="n">
-        <v>50.35996526876815</v>
+        <v>50.35996526876809</v>
       </c>
       <c r="H16" t="n">
-        <v>32.81224407031897</v>
+        <v>32.81224407031894</v>
       </c>
       <c r="I16" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J16" t="n">
-        <v>91.91899215927216</v>
+        <v>91.91899215927219</v>
       </c>
       <c r="K16" t="n">
-        <v>237.4946635888038</v>
+        <v>104.1633170308688</v>
       </c>
       <c r="L16" t="n">
-        <v>298.3649588358101</v>
+        <v>306.4332693359451</v>
       </c>
       <c r="M16" t="n">
-        <v>372.9332736231244</v>
+        <v>522.4012411813292</v>
       </c>
       <c r="N16" t="n">
-        <v>592.5627940330978</v>
+        <v>600.6311045332327</v>
       </c>
       <c r="O16" t="n">
-        <v>790.204096252454</v>
+        <v>798.2724067525888</v>
       </c>
       <c r="P16" t="n">
-        <v>897.8751138772329</v>
+        <v>822.876168003625</v>
       </c>
       <c r="Q16" t="n">
-        <v>897.8751138772329</v>
+        <v>897.8751138772326</v>
       </c>
       <c r="R16" t="n">
-        <v>873.4160942063031</v>
+        <v>873.4160942063028</v>
       </c>
       <c r="S16" t="n">
-        <v>795.4206311855197</v>
+        <v>795.4206311855194</v>
       </c>
       <c r="T16" t="n">
-        <v>710.4271603281976</v>
+        <v>710.4271603281973</v>
       </c>
       <c r="U16" t="n">
-        <v>565.4992235606719</v>
+        <v>565.4992235606716</v>
       </c>
       <c r="V16" t="n">
-        <v>455.0853782055858</v>
+        <v>455.0853782055855</v>
       </c>
       <c r="W16" t="n">
-        <v>309.9388510194259</v>
+        <v>309.9388510194257</v>
       </c>
       <c r="X16" t="n">
-        <v>226.2199429722094</v>
+        <v>226.2199429722091</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.69800667948</v>
+        <v>149.6980066794798</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5598399739541</v>
+        <v>784.5598399739545</v>
       </c>
       <c r="C17" t="n">
-        <v>669.4407499711456</v>
+        <v>669.4407499711459</v>
       </c>
       <c r="D17" t="n">
-        <v>565.0184783019984</v>
+        <v>565.0184783019989</v>
       </c>
       <c r="E17" t="n">
-        <v>433.0736526413575</v>
+        <v>433.0736526413579</v>
       </c>
       <c r="F17" t="n">
         <v>275.9311747893535</v>
@@ -5522,13 +5522,13 @@
         <v>484.3638521064405</v>
       </c>
       <c r="M17" t="n">
-        <v>775.3232217644988</v>
+        <v>789.6918103109181</v>
       </c>
       <c r="N17" t="n">
-        <v>1070.959707997464</v>
+        <v>1085.328296543884</v>
       </c>
       <c r="O17" t="n">
-        <v>1304.933220852845</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P17" t="n">
         <v>1304.933220852845</v>
@@ -5558,7 +5558,7 @@
         <v>1053.612158138681</v>
       </c>
       <c r="Y17" t="n">
-        <v>917.3162531004727</v>
+        <v>917.3162531004731</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>973.0096126250162</v>
+        <v>201.4406128451398</v>
       </c>
       <c r="C18" t="n">
-        <v>811.7086225956314</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D18" t="n">
-        <v>662.7742129343801</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E18" t="n">
-        <v>503.5367579289247</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F18" t="n">
-        <v>357.0021999558096</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G18" t="n">
-        <v>218.5460607268954</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H18" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I18" t="n">
         <v>26.98758356401273</v>
@@ -5595,49 +5595,49 @@
         <v>26.98758356401273</v>
       </c>
       <c r="K18" t="n">
-        <v>26.98758356401273</v>
+        <v>158.9657337207421</v>
       </c>
       <c r="L18" t="n">
-        <v>315.4056578489914</v>
+        <v>447.3838080057208</v>
       </c>
       <c r="M18" t="n">
-        <v>649.377004453649</v>
+        <v>781.3551546103783</v>
       </c>
       <c r="N18" t="n">
-        <v>932.8112465589154</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="O18" t="n">
-        <v>1245.618931356884</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="P18" t="n">
-        <v>1245.618931356884</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q18" t="n">
         <v>1349.379178200636</v>
       </c>
       <c r="R18" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S18" t="n">
-        <v>1349.379178200636</v>
+        <v>1096.949118643474</v>
       </c>
       <c r="T18" t="n">
-        <v>1349.379178200636</v>
+        <v>895.8697021040123</v>
       </c>
       <c r="U18" t="n">
-        <v>1349.379178200636</v>
+        <v>667.6641553001691</v>
       </c>
       <c r="V18" t="n">
-        <v>1349.379178200636</v>
+        <v>432.5120470684264</v>
       </c>
       <c r="W18" t="n">
-        <v>1348.985248410038</v>
+        <v>432.118117277828</v>
       </c>
       <c r="X18" t="n">
-        <v>1348.985248410038</v>
+        <v>224.2666170722952</v>
       </c>
       <c r="Y18" t="n">
-        <v>1141.224949645084</v>
+        <v>201.4406128451398</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C19" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D19" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E19" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F19" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G19" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H19" t="n">
         <v>26.98758356401273</v>
@@ -5692,31 +5692,31 @@
         <v>325.6774777340212</v>
       </c>
       <c r="Q19" t="n">
-        <v>325.6774777340212</v>
+        <v>257.9285631493234</v>
       </c>
       <c r="R19" t="n">
-        <v>325.6774777340212</v>
+        <v>257.9285631493234</v>
       </c>
       <c r="S19" t="n">
-        <v>325.6774777340212</v>
+        <v>257.9285631493234</v>
       </c>
       <c r="T19" t="n">
-        <v>325.6774777340212</v>
+        <v>257.9285631493234</v>
       </c>
       <c r="U19" t="n">
-        <v>290.322325053298</v>
+        <v>222.5734104686002</v>
       </c>
       <c r="V19" t="n">
-        <v>289.4812637850143</v>
+        <v>221.7323492003165</v>
       </c>
       <c r="W19" t="n">
-        <v>253.9075206856568</v>
+        <v>186.1586061009591</v>
       </c>
       <c r="X19" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="Y19" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>784.5598399739542</v>
+        <v>784.5598399739541</v>
       </c>
       <c r="C20" t="n">
         <v>669.4407499711457</v>
       </c>
       <c r="D20" t="n">
-        <v>565.0184783019986</v>
+        <v>565.0184783019984</v>
       </c>
       <c r="E20" t="n">
-        <v>433.0736526413577</v>
+        <v>433.0736526413573</v>
       </c>
       <c r="F20" t="n">
         <v>275.9311747893535</v>
@@ -5750,25 +5750,25 @@
         <v>26.98758356401273</v>
       </c>
       <c r="J20" t="n">
-        <v>26.98758356401273</v>
+        <v>57.86375137082624</v>
       </c>
       <c r="K20" t="n">
-        <v>48.49874164768653</v>
+        <v>224.8839273401038</v>
       </c>
       <c r="L20" t="n">
-        <v>307.9786664140232</v>
+        <v>484.3638521064405</v>
       </c>
       <c r="M20" t="n">
-        <v>613.3066246185008</v>
+        <v>657.7525819662926</v>
       </c>
       <c r="N20" t="n">
-        <v>908.9431108514663</v>
+        <v>953.3890681992581</v>
       </c>
       <c r="O20" t="n">
-        <v>1142.916623706846</v>
+        <v>1187.362581054638</v>
       </c>
       <c r="P20" t="n">
-        <v>1304.933220852845</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q20" t="n">
         <v>1349.379178200636</v>
@@ -5795,7 +5795,7 @@
         <v>1053.612158138681</v>
       </c>
       <c r="Y20" t="n">
-        <v>917.3162531004729</v>
+        <v>917.3162531004726</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>246.285954657299</v>
+        <v>308.4727089951423</v>
       </c>
       <c r="C21" t="n">
-        <v>246.285954657299</v>
+        <v>173.5221415371278</v>
       </c>
       <c r="D21" t="n">
-        <v>246.285954657299</v>
+        <v>173.5221415371278</v>
       </c>
       <c r="E21" t="n">
-        <v>246.285954657299</v>
+        <v>173.5221415371278</v>
       </c>
       <c r="F21" t="n">
-        <v>246.285954657299</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G21" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H21" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I21" t="n">
         <v>26.98758356401273</v>
@@ -5853,28 +5853,28 @@
         <v>1349.379178200636</v>
       </c>
       <c r="R21" t="n">
-        <v>1265.264287718368</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S21" t="n">
-        <v>1096.949118643474</v>
+        <v>1181.064009125742</v>
       </c>
       <c r="T21" t="n">
-        <v>1096.949118643474</v>
+        <v>979.9845925862805</v>
       </c>
       <c r="U21" t="n">
-        <v>868.7435718396305</v>
+        <v>751.7790457824374</v>
       </c>
       <c r="V21" t="n">
-        <v>708.2836101504546</v>
+        <v>516.6269375506947</v>
       </c>
       <c r="W21" t="n">
-        <v>454.046253422253</v>
+        <v>516.2330077600963</v>
       </c>
       <c r="X21" t="n">
-        <v>454.046253422253</v>
+        <v>516.2330077600963</v>
       </c>
       <c r="Y21" t="n">
-        <v>246.285954657299</v>
+        <v>308.4727089951423</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.5598399739549</v>
+        <v>784.5598399739541</v>
       </c>
       <c r="C23" t="n">
-        <v>669.4407499711464</v>
+        <v>669.4407499711456</v>
       </c>
       <c r="D23" t="n">
-        <v>565.018478301999</v>
+        <v>565.0184783019984</v>
       </c>
       <c r="E23" t="n">
-        <v>433.073652641358</v>
+        <v>433.0736526413575</v>
       </c>
       <c r="F23" t="n">
-        <v>275.9311747893537</v>
+        <v>275.9311747893535</v>
       </c>
       <c r="G23" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H23" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I23" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J23" t="n">
-        <v>26.98758356401275</v>
+        <v>57.86375137082624</v>
       </c>
       <c r="K23" t="n">
-        <v>48.49874164768744</v>
+        <v>224.8839273401038</v>
       </c>
       <c r="L23" t="n">
-        <v>307.9786664140241</v>
+        <v>484.3638521064405</v>
       </c>
       <c r="M23" t="n">
-        <v>613.3066246185017</v>
+        <v>775.3232217644988</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9431108514672</v>
+        <v>1070.959707997464</v>
       </c>
       <c r="O23" t="n">
-        <v>1142.916623706847</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="P23" t="n">
-        <v>1304.933220852846</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="Q23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U23" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V23" t="n">
-        <v>1272.15971779467</v>
+        <v>1272.159717794669</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.234489462159</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X23" t="n">
-        <v>1053.612158138682</v>
+        <v>1053.612158138681</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.3162531004734</v>
+        <v>917.3162531004727</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>562.5362380682066</v>
+        <v>186.2250385694682</v>
       </c>
       <c r="C24" t="n">
-        <v>562.5362380682066</v>
+        <v>186.2250385694682</v>
       </c>
       <c r="D24" t="n">
-        <v>413.6018284069553</v>
+        <v>186.2250385694682</v>
       </c>
       <c r="E24" t="n">
-        <v>254.3643734014998</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G24" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H24" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I24" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J24" t="n">
-        <v>51.68383790382259</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K24" t="n">
-        <v>220.5145132468847</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9325875318634</v>
+        <v>484.2363331920536</v>
       </c>
       <c r="M24" t="n">
-        <v>842.9039341365212</v>
+        <v>818.2076797967111</v>
       </c>
       <c r="N24" t="n">
-        <v>1176.875280741179</v>
+        <v>1152.179026401369</v>
       </c>
       <c r="O24" t="n">
-        <v>1176.875280741179</v>
+        <v>1152.179026401369</v>
       </c>
       <c r="P24" t="n">
-        <v>1245.618931356885</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q24" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R24" t="n">
-        <v>1349.379178200637</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S24" t="n">
-        <v>1181.064009125743</v>
+        <v>1096.949118643474</v>
       </c>
       <c r="T24" t="n">
-        <v>979.9845925862815</v>
+        <v>895.8697021040123</v>
       </c>
       <c r="U24" t="n">
-        <v>751.7790457824383</v>
+        <v>883.3748022943664</v>
       </c>
       <c r="V24" t="n">
-        <v>562.930167858805</v>
+        <v>648.2226940626238</v>
       </c>
       <c r="W24" t="n">
-        <v>562.5362380682066</v>
+        <v>393.9853373344222</v>
       </c>
       <c r="X24" t="n">
-        <v>562.5362380682066</v>
+        <v>393.9853373344222</v>
       </c>
       <c r="Y24" t="n">
-        <v>562.5362380682066</v>
+        <v>186.2250385694682</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C25" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D25" t="n">
-        <v>174.9006771464059</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J25" t="n">
-        <v>26.98758356401275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K25" t="n">
-        <v>31.16359793547453</v>
+        <v>31.16359793547451</v>
       </c>
       <c r="L25" t="n">
-        <v>92.03389318248088</v>
+        <v>92.03389318248087</v>
       </c>
       <c r="M25" t="n">
         <v>166.6022079697951</v>
@@ -6178,19 +6178,19 @@
         <v>325.6774777340212</v>
       </c>
       <c r="U25" t="n">
-        <v>290.322325053298</v>
+        <v>63.40238793165389</v>
       </c>
       <c r="V25" t="n">
-        <v>289.4812637850143</v>
+        <v>62.56132666337018</v>
       </c>
       <c r="W25" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="X25" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="Y25" t="n">
-        <v>253.9075206856568</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>97.02845994022843</v>
       </c>
       <c r="I26" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J26" t="n">
-        <v>234.4964218079624</v>
+        <v>234.4964218079619</v>
       </c>
       <c r="K26" t="n">
-        <v>549.7127841695933</v>
+        <v>549.7127841695926</v>
       </c>
       <c r="L26" t="n">
-        <v>957.3888953282833</v>
+        <v>957.3888953282824</v>
       </c>
       <c r="M26" t="n">
-        <v>1410.913039925114</v>
+        <v>1410.913039925113</v>
       </c>
       <c r="N26" t="n">
         <v>1854.745712550432</v>
       </c>
       <c r="O26" t="n">
-        <v>2236.915411798166</v>
+        <v>2236.915411798165</v>
       </c>
       <c r="P26" t="n">
         <v>2547.128195336517</v>
@@ -6248,7 +6248,7 @@
         <v>2739.770339076662</v>
       </c>
       <c r="R26" t="n">
-        <v>2771.203380439759</v>
+        <v>2771.203380439758</v>
       </c>
       <c r="S26" t="n">
         <v>2722.975969437759</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1014.598135921541</v>
+        <v>237.9093826347378</v>
       </c>
       <c r="C27" t="n">
-        <v>840.1451066404138</v>
+        <v>214.6615226142507</v>
       </c>
       <c r="D27" t="n">
-        <v>691.2106969791625</v>
+        <v>214.6615226142507</v>
       </c>
       <c r="E27" t="n">
-        <v>531.9732419737071</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="F27" t="n">
-        <v>385.438684000592</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="G27" t="n">
-        <v>246.9825447716778</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2662994731672</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I27" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J27" t="n">
-        <v>80.12032194860502</v>
+        <v>80.12032194860501</v>
       </c>
       <c r="K27" t="n">
         <v>248.9509972916671</v>
@@ -6327,28 +6327,28 @@
         <v>1991.07946402832</v>
       </c>
       <c r="R27" t="n">
-        <v>1929.389022987039</v>
+        <v>1906.964573546052</v>
       </c>
       <c r="S27" t="n">
-        <v>1912.279023172785</v>
+        <v>1738.649404471157</v>
       </c>
       <c r="T27" t="n">
-        <v>1862.404775893963</v>
+        <v>1537.569987931696</v>
       </c>
       <c r="U27" t="n">
-        <v>1785.40439835076</v>
+        <v>1309.364441127853</v>
       </c>
       <c r="V27" t="n">
-        <v>1701.457459379657</v>
+        <v>1074.21233289611</v>
       </c>
       <c r="W27" t="n">
-        <v>1447.220102651456</v>
+        <v>819.9749761679084</v>
       </c>
       <c r="X27" t="n">
-        <v>1239.368602445923</v>
+        <v>612.1234759623756</v>
       </c>
       <c r="Y27" t="n">
-        <v>1031.608303680969</v>
+        <v>404.3631771974216</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.0206770687631</v>
+        <v>93.49789674253927</v>
       </c>
       <c r="C28" t="n">
-        <v>84.28966340149611</v>
+        <v>75.76688307527226</v>
       </c>
       <c r="D28" t="n">
-        <v>84.28966340149611</v>
+        <v>76.8337511795952</v>
       </c>
       <c r="E28" t="n">
-        <v>84.28966340149611</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="F28" t="n">
         <v>84.28966340149611</v>
@@ -6376,58 +6376,58 @@
         <v>66.03726239740523</v>
       </c>
       <c r="H28" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I28" t="n">
-        <v>55.42406760879518</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J28" t="n">
-        <v>81.8864152103348</v>
+        <v>127.1520055383379</v>
       </c>
       <c r="K28" t="n">
-        <v>234.2586159741497</v>
+        <v>131.3280199097997</v>
       </c>
       <c r="L28" t="n">
-        <v>295.1289112211561</v>
+        <v>192.1983151568061</v>
       </c>
       <c r="M28" t="n">
-        <v>369.6972260084704</v>
+        <v>266.7666299441203</v>
       </c>
       <c r="N28" t="n">
-        <v>596.1232757527271</v>
+        <v>493.1926796883771</v>
       </c>
       <c r="O28" t="n">
-        <v>800.5611073063666</v>
+        <v>697.6305112420166</v>
       </c>
       <c r="P28" t="n">
-        <v>825.1648685574028</v>
+        <v>734.8466130232881</v>
       </c>
       <c r="Q28" t="n">
-        <v>825.1648685574028</v>
+        <v>816.6420882311789</v>
       </c>
       <c r="R28" t="n">
-        <v>807.6403752963121</v>
+        <v>799.1175949700882</v>
       </c>
       <c r="S28" t="n">
-        <v>736.5794386853678</v>
+        <v>728.056658359144</v>
       </c>
       <c r="T28" t="n">
-        <v>658.5204942378848</v>
+        <v>649.997713911661</v>
       </c>
       <c r="U28" t="n">
-        <v>520.5270838801982</v>
+        <v>512.0043035539744</v>
       </c>
       <c r="V28" t="n">
-        <v>417.0477649349513</v>
+        <v>408.5249846087274</v>
       </c>
       <c r="W28" t="n">
-        <v>278.8357641586306</v>
+        <v>270.3129838324067</v>
       </c>
       <c r="X28" t="n">
-        <v>202.0513825212531</v>
+        <v>193.5286021950293</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.4639726383629</v>
+        <v>123.9411923121391</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1470.430262411951</v>
+        <v>1470.43026241195</v>
       </c>
       <c r="C29" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.672914732178</v>
       </c>
       <c r="D29" t="n">
         <v>1045.612385386068</v>
       </c>
       <c r="E29" t="n">
-        <v>811.0293020484639</v>
+        <v>811.0293020484636</v>
       </c>
       <c r="F29" t="n">
-        <v>551.2485665194962</v>
+        <v>551.248566519496</v>
       </c>
       <c r="G29" t="n">
-        <v>283.4694079821381</v>
+        <v>283.4694079821379</v>
       </c>
       <c r="H29" t="n">
-        <v>97.02845994022852</v>
+        <v>97.02845994022847</v>
       </c>
       <c r="I29" t="n">
         <v>55.42406760879517</v>
@@ -6464,10 +6464,10 @@
         <v>234.4964218079618</v>
       </c>
       <c r="K29" t="n">
-        <v>549.7127841695924</v>
+        <v>549.7127841695926</v>
       </c>
       <c r="L29" t="n">
-        <v>957.3888953282822</v>
+        <v>957.3888953282828</v>
       </c>
       <c r="M29" t="n">
         <v>1410.913039925113</v>
@@ -6479,10 +6479,10 @@
         <v>2236.915411798165</v>
       </c>
       <c r="P29" t="n">
-        <v>2547.128195336516</v>
+        <v>2547.128195336517</v>
       </c>
       <c r="Q29" t="n">
-        <v>2739.770339076661</v>
+        <v>2739.770339076662</v>
       </c>
       <c r="R29" t="n">
         <v>2771.203380439758</v>
@@ -6497,16 +6497,16 @@
         <v>2548.440889023449</v>
       </c>
       <c r="V29" t="n">
-        <v>2368.583170940519</v>
+        <v>2368.583170940518</v>
       </c>
       <c r="W29" t="n">
-        <v>2167.019684931045</v>
+        <v>2167.019684931044</v>
       </c>
       <c r="X29" t="n">
         <v>1944.759095930604</v>
       </c>
       <c r="Y29" t="n">
-        <v>1705.824933215433</v>
+        <v>1705.824933215432</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>471.4678999202618</v>
+        <v>387.3530094379935</v>
       </c>
       <c r="C30" t="n">
-        <v>297.0148706391348</v>
+        <v>212.8999801568665</v>
       </c>
       <c r="D30" t="n">
-        <v>148.0804609778835</v>
+        <v>63.96557049561525</v>
       </c>
       <c r="E30" t="n">
-        <v>140.0481752330679</v>
+        <v>55.93328475079966</v>
       </c>
       <c r="F30" t="n">
-        <v>140.0481752330679</v>
+        <v>55.93328475079966</v>
       </c>
       <c r="G30" t="n">
         <v>55.42406760879517</v>
@@ -6564,28 +6564,28 @@
         <v>1991.07946402832</v>
       </c>
       <c r="R30" t="n">
-        <v>1991.07946402832</v>
+        <v>1906.964573546052</v>
       </c>
       <c r="S30" t="n">
-        <v>1822.764294953425</v>
+        <v>1738.649404471157</v>
       </c>
       <c r="T30" t="n">
-        <v>1621.684878413964</v>
+        <v>1537.569987931696</v>
       </c>
       <c r="U30" t="n">
-        <v>1393.479331610121</v>
+        <v>1309.364441127853</v>
       </c>
       <c r="V30" t="n">
-        <v>1158.327223378378</v>
+        <v>1074.21233289611</v>
       </c>
       <c r="W30" t="n">
-        <v>904.0898666501766</v>
+        <v>819.9749761679084</v>
       </c>
       <c r="X30" t="n">
-        <v>847.4435357052837</v>
+        <v>612.1234759623756</v>
       </c>
       <c r="Y30" t="n">
-        <v>639.6832369403298</v>
+        <v>555.5683464580616</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.0206770687632</v>
+        <v>93.49789674253927</v>
       </c>
       <c r="C31" t="n">
-        <v>84.28966340149617</v>
+        <v>75.76688307527226</v>
       </c>
       <c r="D31" t="n">
-        <v>84.28966340149617</v>
+        <v>76.8337511795952</v>
       </c>
       <c r="E31" t="n">
-        <v>84.28966340149617</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="F31" t="n">
-        <v>84.28966340149617</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="G31" t="n">
-        <v>66.03726239740526</v>
+        <v>66.03726239740523</v>
       </c>
       <c r="H31" t="n">
         <v>55.42406760879517</v>
@@ -6625,46 +6625,46 @@
         <v>59.60008198025695</v>
       </c>
       <c r="L31" t="n">
-        <v>120.4703772272633</v>
+        <v>268.6665636196165</v>
       </c>
       <c r="M31" t="n">
-        <v>343.2348784069307</v>
+        <v>491.4310647992838</v>
       </c>
       <c r="N31" t="n">
-        <v>447.9270893603742</v>
+        <v>587.6004954265032</v>
       </c>
       <c r="O31" t="n">
-        <v>652.3649209140136</v>
+        <v>792.0383269801428</v>
       </c>
       <c r="P31" t="n">
-        <v>825.164868557403</v>
+        <v>816.6420882311789</v>
       </c>
       <c r="Q31" t="n">
-        <v>825.164868557403</v>
+        <v>816.6420882311789</v>
       </c>
       <c r="R31" t="n">
-        <v>807.6403752963123</v>
+        <v>799.1175949700882</v>
       </c>
       <c r="S31" t="n">
-        <v>736.579438685368</v>
+        <v>728.056658359144</v>
       </c>
       <c r="T31" t="n">
-        <v>658.520494237885</v>
+        <v>649.997713911661</v>
       </c>
       <c r="U31" t="n">
-        <v>520.5270838801985</v>
+        <v>512.0043035539744</v>
       </c>
       <c r="V31" t="n">
-        <v>417.0477649349514</v>
+        <v>408.5249846087274</v>
       </c>
       <c r="W31" t="n">
-        <v>278.8357641586307</v>
+        <v>270.3129838324067</v>
       </c>
       <c r="X31" t="n">
-        <v>202.0513825212533</v>
+        <v>193.5286021950293</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.463972638363</v>
+        <v>123.9411923121391</v>
       </c>
     </row>
     <row r="32">
@@ -6680,31 +6680,31 @@
         <v>1252.672914732178</v>
       </c>
       <c r="D32" t="n">
-        <v>1045.612385386067</v>
+        <v>1045.612385386068</v>
       </c>
       <c r="E32" t="n">
-        <v>811.0293020484629</v>
+        <v>811.0293020484635</v>
       </c>
       <c r="F32" t="n">
-        <v>551.2485665194954</v>
+        <v>551.2485665194959</v>
       </c>
       <c r="G32" t="n">
-        <v>283.469407982137</v>
+        <v>283.4694079821379</v>
       </c>
       <c r="H32" t="n">
-        <v>97.02845994022847</v>
+        <v>97.02845994022846</v>
       </c>
       <c r="I32" t="n">
         <v>55.42406760879517</v>
       </c>
       <c r="J32" t="n">
-        <v>234.4964218079618</v>
+        <v>234.4964218079622</v>
       </c>
       <c r="K32" t="n">
-        <v>549.7127841695931</v>
+        <v>549.7127841695929</v>
       </c>
       <c r="L32" t="n">
-        <v>957.3888953282828</v>
+        <v>957.3888953282826</v>
       </c>
       <c r="M32" t="n">
         <v>1410.913039925113</v>
@@ -6728,22 +6728,22 @@
         <v>2722.975969437758</v>
       </c>
       <c r="T32" t="n">
-        <v>2651.079146700411</v>
+        <v>2651.079146700412</v>
       </c>
       <c r="U32" t="n">
-        <v>2548.440889023448</v>
+        <v>2548.440889023449</v>
       </c>
       <c r="V32" t="n">
-        <v>2368.583170940517</v>
+        <v>2368.583170940518</v>
       </c>
       <c r="W32" t="n">
-        <v>2167.019684931043</v>
+        <v>2167.019684931044</v>
       </c>
       <c r="X32" t="n">
-        <v>1944.759095930603</v>
+        <v>1944.759095930604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1705.824933215431</v>
+        <v>1705.824933215432</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>823.0396587586582</v>
+        <v>538.5581786986335</v>
       </c>
       <c r="C33" t="n">
-        <v>648.5866294775312</v>
+        <v>515.3103186781464</v>
       </c>
       <c r="D33" t="n">
-        <v>499.6522198162799</v>
+        <v>366.3759090168951</v>
       </c>
       <c r="E33" t="n">
-        <v>340.4147648108244</v>
+        <v>207.1384540114396</v>
       </c>
       <c r="F33" t="n">
-        <v>193.8802068377094</v>
+        <v>166.1403129073058</v>
       </c>
       <c r="G33" t="n">
-        <v>55.42406760879517</v>
+        <v>166.1403129073058</v>
       </c>
       <c r="H33" t="n">
         <v>55.42406760879517</v>
@@ -6801,28 +6801,28 @@
         <v>1991.07946402832</v>
       </c>
       <c r="R33" t="n">
-        <v>1991.07946402832</v>
+        <v>1906.964573546052</v>
       </c>
       <c r="S33" t="n">
-        <v>1973.969464214065</v>
+        <v>1738.649404471157</v>
       </c>
       <c r="T33" t="n">
-        <v>1924.095216935244</v>
+        <v>1537.569987931696</v>
       </c>
       <c r="U33" t="n">
-        <v>1745.051090448517</v>
+        <v>1309.364441127853</v>
       </c>
       <c r="V33" t="n">
-        <v>1509.898982216775</v>
+        <v>1074.21233289611</v>
       </c>
       <c r="W33" t="n">
-        <v>1255.661625488573</v>
+        <v>819.9749761679084</v>
       </c>
       <c r="X33" t="n">
-        <v>1047.81012528304</v>
+        <v>612.1234759623756</v>
       </c>
       <c r="Y33" t="n">
-        <v>991.2549957787262</v>
+        <v>555.5683464580616</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.5647648468622</v>
+        <v>93.49789674253927</v>
       </c>
       <c r="C34" t="n">
-        <v>76.8337511795952</v>
+        <v>75.76688307527226</v>
       </c>
       <c r="D34" t="n">
         <v>76.8337511795952</v>
@@ -6859,49 +6859,49 @@
         <v>55.42406760879517</v>
       </c>
       <c r="K34" t="n">
-        <v>78.60651735989563</v>
+        <v>59.60008198025695</v>
       </c>
       <c r="L34" t="n">
-        <v>139.476812606902</v>
+        <v>268.6665636196165</v>
       </c>
       <c r="M34" t="n">
-        <v>214.0451273942162</v>
+        <v>427.5751568667089</v>
       </c>
       <c r="N34" t="n">
-        <v>440.471177138473</v>
+        <v>505.8050202186124</v>
       </c>
       <c r="O34" t="n">
-        <v>644.9090086921125</v>
+        <v>710.2428517722519</v>
       </c>
       <c r="P34" t="n">
-        <v>817.7089563355019</v>
+        <v>734.8466130232881</v>
       </c>
       <c r="Q34" t="n">
-        <v>817.7089563355019</v>
+        <v>816.6420882311789</v>
       </c>
       <c r="R34" t="n">
-        <v>800.1844630744112</v>
+        <v>799.1175949700882</v>
       </c>
       <c r="S34" t="n">
-        <v>729.1235264634669</v>
+        <v>728.056658359144</v>
       </c>
       <c r="T34" t="n">
-        <v>651.0645820159839</v>
+        <v>649.997713911661</v>
       </c>
       <c r="U34" t="n">
-        <v>513.0711716582973</v>
+        <v>512.0043035539744</v>
       </c>
       <c r="V34" t="n">
-        <v>409.5918527130503</v>
+        <v>408.5249846087274</v>
       </c>
       <c r="W34" t="n">
-        <v>271.3798519367297</v>
+        <v>270.3129838324067</v>
       </c>
       <c r="X34" t="n">
-        <v>194.5954702993522</v>
+        <v>193.5286021950293</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.008060416462</v>
+        <v>123.9411923121391</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.3521304873561</v>
+        <v>876.3521304873559</v>
       </c>
       <c r="C35" t="n">
         <v>746.5342750101795</v>
       </c>
       <c r="D35" t="n">
-        <v>627.4132378666641</v>
+        <v>627.4132378666642</v>
       </c>
       <c r="E35" t="n">
-        <v>480.769646731655</v>
+        <v>480.7696467316551</v>
       </c>
       <c r="F35" t="n">
-        <v>308.9284034052826</v>
+        <v>308.9284034052828</v>
       </c>
       <c r="G35" t="n">
-        <v>129.0887370705191</v>
+        <v>129.088737070519</v>
       </c>
       <c r="H35" t="n">
         <v>30.58728123120493</v>
@@ -6968,7 +6968,7 @@
         <v>1529.364061560246</v>
       </c>
       <c r="U35" t="n">
-        <v>1514.665296085879</v>
+        <v>1514.665296085878</v>
       </c>
       <c r="V35" t="n">
         <v>1422.747070205543</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>684.7862544136335</v>
+        <v>353.9747201735833</v>
       </c>
       <c r="C36" t="n">
-        <v>510.3332251325065</v>
+        <v>179.5216908924562</v>
       </c>
       <c r="D36" t="n">
-        <v>361.3988154712553</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="E36" t="n">
-        <v>202.1613604657998</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="F36" t="n">
-        <v>55.62680249268473</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="G36" t="n">
-        <v>55.62680249268473</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="H36" t="n">
-        <v>55.62680249268473</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="I36" t="n">
         <v>30.58728123120493</v>
@@ -7023,43 +7023,43 @@
         <v>487.8360308592458</v>
       </c>
       <c r="M36" t="n">
-        <v>603.9860945405158</v>
+        <v>866.3536360954067</v>
       </c>
       <c r="N36" t="n">
-        <v>982.5036997766767</v>
+        <v>878.7434529329246</v>
       </c>
       <c r="O36" t="n">
-        <v>1295.311384574646</v>
+        <v>1191.551137730894</v>
       </c>
       <c r="P36" t="n">
-        <v>1529.364061560246</v>
+        <v>1425.603814716494</v>
       </c>
       <c r="Q36" t="n">
         <v>1529.364061560246</v>
       </c>
       <c r="R36" t="n">
-        <v>1445.249171077978</v>
+        <v>1529.364061560246</v>
       </c>
       <c r="S36" t="n">
-        <v>1276.934002003083</v>
+        <v>1440.8644854969</v>
       </c>
       <c r="T36" t="n">
-        <v>1075.854585463622</v>
+        <v>1239.785068957439</v>
       </c>
       <c r="U36" t="n">
-        <v>1075.854585463622</v>
+        <v>1011.579522153595</v>
       </c>
       <c r="V36" t="n">
-        <v>1075.854585463622</v>
+        <v>776.4274139218528</v>
       </c>
       <c r="W36" t="n">
-        <v>1060.761890198655</v>
+        <v>522.1900571936512</v>
       </c>
       <c r="X36" t="n">
-        <v>1060.761890198655</v>
+        <v>522.1900571936512</v>
       </c>
       <c r="Y36" t="n">
-        <v>853.0015914337016</v>
+        <v>522.1900571936512</v>
       </c>
     </row>
     <row r="37">
@@ -7120,19 +7120,19 @@
         <v>329.2771754012134</v>
       </c>
       <c r="S37" t="n">
-        <v>329.2771754012134</v>
+        <v>146.4535347026733</v>
       </c>
       <c r="T37" t="n">
-        <v>329.2771754012134</v>
+        <v>146.4535347026733</v>
       </c>
       <c r="U37" t="n">
-        <v>279.223257246122</v>
+        <v>96.39961654758206</v>
       </c>
       <c r="V37" t="n">
-        <v>263.6834305034703</v>
+        <v>80.85978980493036</v>
       </c>
       <c r="W37" t="n">
-        <v>213.4109219297448</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="X37" t="n">
         <v>30.58728123120493</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.3521304873552</v>
+        <v>876.3521304873561</v>
       </c>
       <c r="C38" t="n">
-        <v>746.5342750101786</v>
+        <v>746.5342750101795</v>
       </c>
       <c r="D38" t="n">
-        <v>627.4132378666634</v>
+        <v>627.4132378666641</v>
       </c>
       <c r="E38" t="n">
-        <v>480.7696467316546</v>
+        <v>480.769646731655</v>
       </c>
       <c r="F38" t="n">
-        <v>308.928403405282</v>
+        <v>308.9284034052826</v>
       </c>
       <c r="G38" t="n">
         <v>129.0887370705191</v>
@@ -7181,7 +7181,7 @@
         <v>487.9635497736328</v>
       </c>
       <c r="M38" t="n">
-        <v>793.2915079781103</v>
+        <v>793.2915079781105</v>
       </c>
       <c r="N38" t="n">
         <v>1088.927994211076</v>
@@ -7211,13 +7211,13 @@
         <v>1422.747070205543</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.123076398663</v>
+        <v>1309.123076398664</v>
       </c>
       <c r="X38" t="n">
-        <v>1174.801979600818</v>
+        <v>1174.801979600819</v>
       </c>
       <c r="Y38" t="n">
-        <v>1023.807309088242</v>
+        <v>1023.807309088243</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>210.6639624804839</v>
+        <v>336.3592942097754</v>
       </c>
       <c r="C39" t="n">
-        <v>36.21093319935684</v>
+        <v>336.3592942097754</v>
       </c>
       <c r="D39" t="n">
-        <v>30.58728123120493</v>
+        <v>336.3592942097754</v>
       </c>
       <c r="E39" t="n">
-        <v>30.58728123120493</v>
+        <v>177.1218392043199</v>
       </c>
       <c r="F39" t="n">
         <v>30.58728123120493</v>
@@ -7257,10 +7257,10 @@
         <v>55.28353557101477</v>
       </c>
       <c r="L39" t="n">
-        <v>343.7016098559935</v>
+        <v>121.7082424606027</v>
       </c>
       <c r="M39" t="n">
-        <v>722.2192150921544</v>
+        <v>500.2258476967637</v>
       </c>
       <c r="N39" t="n">
         <v>878.7434529329246</v>
@@ -7278,25 +7278,25 @@
         <v>1445.249171077978</v>
       </c>
       <c r="S39" t="n">
-        <v>1276.934002003083</v>
+        <v>1445.249171077978</v>
       </c>
       <c r="T39" t="n">
-        <v>1276.934002003083</v>
+        <v>1244.169754538517</v>
       </c>
       <c r="U39" t="n">
-        <v>1048.72845519924</v>
+        <v>1015.964207734673</v>
       </c>
       <c r="V39" t="n">
-        <v>1048.72845519924</v>
+        <v>780.8120995029308</v>
       </c>
       <c r="W39" t="n">
-        <v>794.4910984710386</v>
+        <v>526.5747427747292</v>
       </c>
       <c r="X39" t="n">
-        <v>586.6395982655058</v>
+        <v>504.5746312298435</v>
       </c>
       <c r="Y39" t="n">
-        <v>378.8792995005519</v>
+        <v>504.5746312298435</v>
       </c>
     </row>
     <row r="40">
@@ -7357,16 +7357,16 @@
         <v>329.2771754012134</v>
       </c>
       <c r="S40" t="n">
-        <v>329.2771754012134</v>
+        <v>146.4535347026735</v>
       </c>
       <c r="T40" t="n">
-        <v>329.2771754012134</v>
+        <v>146.4535347026735</v>
       </c>
       <c r="U40" t="n">
-        <v>279.223257246122</v>
+        <v>96.39961654758217</v>
       </c>
       <c r="V40" t="n">
-        <v>263.6834305034703</v>
+        <v>80.85978980493041</v>
       </c>
       <c r="W40" t="n">
         <v>30.58728123120493</v>
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.5369642907483</v>
+        <v>976.536964290748</v>
       </c>
       <c r="C41" t="n">
-        <v>830.6764393483226</v>
+        <v>830.6764393483222</v>
       </c>
       <c r="D41" t="n">
-        <v>695.512732739558</v>
+        <v>695.5127327395578</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8264721393</v>
+        <v>532.8264721392998</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9425593476785</v>
+        <v>344.9425593476783</v>
       </c>
       <c r="G41" t="n">
         <v>149.060223547666</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I41" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J41" t="n">
-        <v>65.39226604991619</v>
+        <v>65.39226604991617</v>
       </c>
       <c r="K41" t="n">
-        <v>401.7260851603712</v>
+        <v>232.4124420191937</v>
       </c>
       <c r="L41" t="n">
-        <v>661.2060099267079</v>
+        <v>491.8923667855304</v>
       </c>
       <c r="M41" t="n">
-        <v>966.5339681311855</v>
+        <v>797.2203249900081</v>
       </c>
       <c r="N41" t="n">
-        <v>1262.170454364151</v>
+        <v>1092.856811222974</v>
       </c>
       <c r="O41" t="n">
-        <v>1496.143967219531</v>
+        <v>1326.830324078354</v>
       </c>
       <c r="P41" t="n">
-        <v>1658.16056436553</v>
+        <v>1579.459837479372</v>
       </c>
       <c r="Q41" t="n">
-        <v>1702.606521713321</v>
+        <v>1623.905794827164</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.606521713321</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.804912155134</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.804912155134</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="U41" t="n">
-        <v>1695.063477215517</v>
+        <v>1695.063477215516</v>
       </c>
       <c r="V41" t="n">
-        <v>1587.102581869932</v>
+        <v>1587.102581869931</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.435918597804</v>
+        <v>1457.435918597803</v>
       </c>
       <c r="X41" t="n">
-        <v>1307.07215233471</v>
+        <v>1307.072152334709</v>
       </c>
       <c r="Y41" t="n">
         <v>1140.034812356884</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>481.1441021387237</v>
+        <v>653.1972797317145</v>
       </c>
       <c r="C42" t="n">
-        <v>481.1441021387237</v>
+        <v>478.7442504505875</v>
       </c>
       <c r="D42" t="n">
-        <v>332.2096924774725</v>
+        <v>478.7442504505875</v>
       </c>
       <c r="E42" t="n">
-        <v>172.9722374720169</v>
+        <v>319.506795445132</v>
       </c>
       <c r="F42" t="n">
         <v>172.9722374720169</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51609824310268</v>
+        <v>59.21235258291252</v>
       </c>
       <c r="K42" t="n">
-        <v>34.51609824310268</v>
+        <v>228.0430279259746</v>
       </c>
       <c r="L42" t="n">
-        <v>322.9341725280814</v>
+        <v>516.4611022109534</v>
       </c>
       <c r="M42" t="n">
-        <v>711.4836830572517</v>
+        <v>905.0106127401236</v>
       </c>
       <c r="N42" t="n">
-        <v>1126.023956352434</v>
+        <v>1075.184303527812</v>
       </c>
       <c r="O42" t="n">
-        <v>1438.831641150403</v>
+        <v>1387.991988325781</v>
       </c>
       <c r="P42" t="n">
-        <v>1672.884318136003</v>
+        <v>1622.044665311381</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.804912155134</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.804912155134</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.804912155134</v>
+        <v>1557.489743080239</v>
       </c>
       <c r="T42" t="n">
-        <v>1725.804912155134</v>
+        <v>1523.665935282538</v>
       </c>
       <c r="U42" t="n">
-        <v>1554.360703089223</v>
+        <v>1295.460388478695</v>
       </c>
       <c r="V42" t="n">
-        <v>1319.20859485748</v>
+        <v>1283.410272244938</v>
       </c>
       <c r="W42" t="n">
-        <v>1064.971238129278</v>
+        <v>1029.172915516736</v>
       </c>
       <c r="X42" t="n">
-        <v>857.1197379237456</v>
+        <v>1029.172915516736</v>
       </c>
       <c r="Y42" t="n">
-        <v>649.3594391587917</v>
+        <v>821.4126167517825</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="K43" t="n">
-        <v>38.69211261456446</v>
+        <v>38.69211261456445</v>
       </c>
       <c r="L43" t="n">
         <v>99.56240786157082</v>
@@ -7597,22 +7597,22 @@
         <v>333.2059924131111</v>
       </c>
       <c r="T43" t="n">
-        <v>203.3979190103502</v>
+        <v>327.0438707029742</v>
       </c>
       <c r="U43" t="n">
-        <v>137.3013313900097</v>
+        <v>260.9472830826338</v>
       </c>
       <c r="V43" t="n">
         <v>105.7188351821087</v>
       </c>
       <c r="W43" t="n">
-        <v>39.40365714313407</v>
+        <v>39.40365714313403</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
     </row>
     <row r="44">
@@ -7622,67 +7622,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.5369642907477</v>
+        <v>976.5369642907473</v>
       </c>
       <c r="C44" t="n">
-        <v>830.6764393483222</v>
+        <v>830.6764393483218</v>
       </c>
       <c r="D44" t="n">
-        <v>695.5127327395578</v>
+        <v>695.5127327395574</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8264721392997</v>
+        <v>532.8264721392992</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9425593476781</v>
+        <v>344.9425593476776</v>
       </c>
       <c r="G44" t="n">
         <v>149.060223547666</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I44" t="n">
-        <v>64.20570928393775</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J44" t="n">
-        <v>95.08187709075126</v>
+        <v>65.39226604991617</v>
       </c>
       <c r="K44" t="n">
-        <v>262.1020530600288</v>
+        <v>232.4124420191937</v>
       </c>
       <c r="L44" t="n">
-        <v>521.5819778263656</v>
+        <v>491.8923667855304</v>
       </c>
       <c r="M44" t="n">
-        <v>826.9099360308431</v>
+        <v>797.2203249900081</v>
       </c>
       <c r="N44" t="n">
-        <v>1122.546422263809</v>
+        <v>1092.856811222974</v>
       </c>
       <c r="O44" t="n">
-        <v>1356.519935119189</v>
+        <v>1326.830324078354</v>
       </c>
       <c r="P44" t="n">
-        <v>1518.536532265187</v>
+        <v>1488.846921224352</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.707404385352</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.606521713321</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.804912155134</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.804912155134</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="U44" t="n">
         <v>1695.063477215516</v>
       </c>
       <c r="V44" t="n">
-        <v>1587.102581869932</v>
+        <v>1587.102581869931</v>
       </c>
       <c r="W44" t="n">
         <v>1457.435918597803</v>
@@ -7691,7 +7691,7 @@
         <v>1307.072152334709</v>
       </c>
       <c r="Y44" t="n">
-        <v>1140.034812356884</v>
+        <v>1140.034812356883</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>504.438095158596</v>
+        <v>417.0772723001388</v>
       </c>
       <c r="C45" t="n">
-        <v>329.985065877469</v>
+        <v>417.0772723001388</v>
       </c>
       <c r="D45" t="n">
-        <v>181.0506562162177</v>
+        <v>268.1428626388875</v>
       </c>
       <c r="E45" t="n">
         <v>181.0506562162177</v>
       </c>
       <c r="F45" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J45" t="n">
-        <v>34.51609824310268</v>
+        <v>59.21235258291252</v>
       </c>
       <c r="K45" t="n">
-        <v>87.43669226223318</v>
+        <v>59.21235258291252</v>
       </c>
       <c r="L45" t="n">
-        <v>375.8547665472119</v>
+        <v>272.0945197034593</v>
       </c>
       <c r="M45" t="n">
-        <v>764.4042770763822</v>
+        <v>660.6440302326296</v>
       </c>
       <c r="N45" t="n">
-        <v>1178.944550371564</v>
+        <v>1075.184303527812</v>
       </c>
       <c r="O45" t="n">
-        <v>1491.752235169533</v>
+        <v>1387.991988325781</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.804912155134</v>
+        <v>1622.044665311381</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.804912155134</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="R45" t="n">
-        <v>1641.690021672866</v>
+        <v>1641.690021672865</v>
       </c>
       <c r="S45" t="n">
         <v>1473.374852597971</v>
       </c>
       <c r="T45" t="n">
-        <v>1390.248443942451</v>
+        <v>1272.295436058509</v>
       </c>
       <c r="U45" t="n">
-        <v>1162.042897138608</v>
+        <v>1044.089889254666</v>
       </c>
       <c r="V45" t="n">
-        <v>926.8907889068655</v>
+        <v>1032.039773020909</v>
       </c>
       <c r="W45" t="n">
-        <v>672.6534321786639</v>
+        <v>1000.904408290694</v>
       </c>
       <c r="X45" t="n">
-        <v>672.6534321786639</v>
+        <v>793.0529080851608</v>
       </c>
       <c r="Y45" t="n">
-        <v>672.6534321786639</v>
+        <v>585.2926093202068</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="K46" t="n">
-        <v>38.69211261456446</v>
+        <v>38.69211261456445</v>
       </c>
       <c r="L46" t="n">
         <v>99.56240786157082</v>
@@ -7837,19 +7837,19 @@
         <v>327.0438707029742</v>
       </c>
       <c r="U46" t="n">
-        <v>260.9472830826338</v>
+        <v>137.3013313900097</v>
       </c>
       <c r="V46" t="n">
-        <v>229.3647868747328</v>
+        <v>105.7188351821087</v>
       </c>
       <c r="W46" t="n">
-        <v>163.0496088357581</v>
+        <v>39.40365714313405</v>
       </c>
       <c r="X46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51609824310268</v>
+        <v>34.51609824310267</v>
       </c>
     </row>
   </sheetData>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>155.438164117349</v>
       </c>
       <c r="L11" t="n">
-        <v>239.4943603156855</v>
+        <v>408.2016087695012</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>177.658782427596</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681402</v>
       </c>
       <c r="M12" t="n">
         <v>410.575605240391</v>
       </c>
       <c r="N12" t="n">
-        <v>281.1843342534265</v>
+        <v>397.9596201107003</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>82.04592319993668</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>105.2689575906448</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>270.6824086053961</v>
+        <v>284.3892667275964</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>167.4200842479937</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>93.92920131251583</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>410.575605240391</v>
+        <v>73.23081069023193</v>
       </c>
       <c r="N15" t="n">
         <v>397.9596201107003</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>248.2609409300567</v>
       </c>
       <c r="P15" t="n">
-        <v>82.04592319993668</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.0839959790804</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,16 +9170,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>434.9998076883686</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>202.6333270279803</v>
       </c>
       <c r="P17" t="n">
-        <v>158.1455797411813</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,7 +9243,7 @@
         <v>101.1453238860555</v>
       </c>
       <c r="K18" t="n">
-        <v>93.92920131251583</v>
+        <v>227.2404640970909</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9252,16 @@
         <v>410.575605240391</v>
       </c>
       <c r="N18" t="n">
-        <v>346.912039808285</v>
+        <v>397.9596201107003</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>77.89496089494268</v>
       </c>
       <c r="P18" t="n">
-        <v>82.04592319993668</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>177.1666066261104</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>316.2415856699785</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>167.4200842479937</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>177.1666066261113</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>434.9998076883686</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>158.1455797411813</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860555</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>410.5756052403913</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N24" t="n">
-        <v>397.9596201107005</v>
+        <v>397.9596201107003</v>
       </c>
       <c r="O24" t="n">
         <v>77.89496089494268</v>
       </c>
       <c r="P24" t="n">
-        <v>151.4839541248924</v>
+        <v>176.4296655792454</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>190.5541073379794</v>
+        <v>455.5718260802935</v>
       </c>
       <c r="N36" t="n">
-        <v>442.9558409506027</v>
+        <v>73.12979206308445</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10905,13 @@
         <v>93.92920131251583</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>146.6046206616503</v>
       </c>
       <c r="M39" t="n">
-        <v>455.5718260802935</v>
+        <v>455.5718260802934</v>
       </c>
       <c r="N39" t="n">
-        <v>218.7201163087939</v>
+        <v>442.9558409506027</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>93.92920131251583</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>232.507442517802</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.724103064514</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>147.384346786385</v>
+        <v>93.92920131251583</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>294.5414491777703</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.9059052411878</v>
       </c>
       <c r="C11" t="n">
         <v>222.4449553487148</v>
       </c>
       <c r="D11" t="n">
-        <v>211.8551051983902</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>264.0481093194186</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>124.2002015814502</v>
+        <v>191.441719707231</v>
       </c>
       <c r="I11" t="n">
-        <v>48.05352955385971</v>
+        <v>48.05352955385968</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>54.61031803772081</v>
+        <v>54.61031803772078</v>
       </c>
       <c r="T11" t="n">
-        <v>78.04303565571333</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>108.4770562459344</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>184.9243220478421</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4130322951202</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.9031642561762</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4100022337608</v>
+        <v>50.09953468635573</v>
       </c>
     </row>
     <row r="12">
@@ -23501,16 +23501,16 @@
         <v>211.8551051983902</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>239.102433649969</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>264.0481093194186</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>191.441719707231</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.9243220478421</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4130322951202</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.9031642561762</v>
       </c>
       <c r="Y14" t="n">
-        <v>225.4465183600208</v>
+        <v>78.17188518464982</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766653.5285448456</v>
+        <v>766653.5285448455</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766653.5285448455</v>
+        <v>766653.5285448456</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774086</v>
+        <v>716866.7963774084</v>
       </c>
       <c r="C2" t="n">
         <v>716866.7963774088</v>
       </c>
       <c r="D2" t="n">
-        <v>716866.7963774086</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="E2" t="n">
+        <v>615160.1906027212</v>
+      </c>
+      <c r="F2" t="n">
         <v>615160.1906027214</v>
-      </c>
-      <c r="F2" t="n">
-        <v>615160.1906027212</v>
       </c>
       <c r="G2" t="n">
         <v>718411.5486312484</v>
       </c>
       <c r="H2" t="n">
-        <v>718411.5486312489</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="I2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312488</v>
       </c>
       <c r="J2" t="n">
-        <v>718411.5486312469</v>
+        <v>718411.5486312468</v>
       </c>
       <c r="K2" t="n">
-        <v>718411.5486312469</v>
+        <v>718411.5486312461</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312463</v>
+        <v>718411.5486312466</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="O2" t="n">
-        <v>718411.5486312489</v>
+        <v>718411.5486312488</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312483</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>86781.64499674749</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86781.64499674752</v>
+        <v>86781.64499674749</v>
       </c>
       <c r="M3" t="n">
-        <v>76347.91860002081</v>
+        <v>76347.91860002083</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32085.47662532954</v>
+        <v>32085.47662532956</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>396179.5052090347</v>
       </c>
       <c r="H4" t="n">
-        <v>396179.5052090348</v>
+        <v>396179.5052090347</v>
       </c>
       <c r="I4" t="n">
         <v>396179.5052090347</v>
@@ -26442,7 +26442,7 @@
         <v>394231.1226104039</v>
       </c>
       <c r="K4" t="n">
-        <v>394231.1226104038</v>
+        <v>394231.1226104039</v>
       </c>
       <c r="L4" t="n">
         <v>394231.1226104039</v>
@@ -26488,7 +26488,7 @@
         <v>44393.65186654632</v>
       </c>
       <c r="I5" t="n">
-        <v>44393.65186654634</v>
+        <v>44393.65186654632</v>
       </c>
       <c r="J5" t="n">
         <v>57462.97101278279</v>
@@ -26500,7 +26500,7 @@
         <v>57462.97101278279</v>
       </c>
       <c r="M5" t="n">
-        <v>45906.06868409439</v>
+        <v>45906.0686840944</v>
       </c>
       <c r="N5" t="n">
         <v>45906.06868409439</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236214.5761050157</v>
+        <v>236210.1625271474</v>
       </c>
       <c r="C6" t="n">
-        <v>236214.5761050159</v>
+        <v>236210.1625271478</v>
       </c>
       <c r="D6" t="n">
-        <v>236214.5761050157</v>
+        <v>236210.1625271477</v>
       </c>
       <c r="E6" t="n">
-        <v>-65679.03443112304</v>
+        <v>-65974.03831120479</v>
       </c>
       <c r="F6" t="n">
-        <v>250879.6290566366</v>
+        <v>250584.6251765553</v>
       </c>
       <c r="G6" t="n">
-        <v>191056.74655892</v>
+        <v>191056.7465589199</v>
       </c>
       <c r="H6" t="n">
+        <v>277838.3915556675</v>
+      </c>
+      <c r="I6" t="n">
         <v>277838.3915556678</v>
       </c>
-      <c r="I6" t="n">
-        <v>277838.3915556676</v>
-      </c>
       <c r="J6" t="n">
-        <v>140741.6630577177</v>
+        <v>140741.6630577175</v>
       </c>
       <c r="K6" t="n">
-        <v>266717.4550080603</v>
+        <v>266717.4550080594</v>
       </c>
       <c r="L6" t="n">
-        <v>179935.8100113121</v>
+        <v>179935.8100113124</v>
       </c>
       <c r="M6" t="n">
-        <v>201780.191582371</v>
+        <v>201780.1915823709</v>
       </c>
       <c r="N6" t="n">
-        <v>278128.1101823918</v>
+        <v>278128.1101823917</v>
       </c>
       <c r="O6" t="n">
-        <v>244876.486902917</v>
+        <v>244876.4869029169</v>
       </c>
       <c r="P6" t="n">
-        <v>276961.9635282463</v>
+        <v>276961.963528246</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>142.8279364222928</v>
       </c>
       <c r="G2" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H2" t="n">
         <v>251.3049926682272</v>
@@ -26808,10 +26808,10 @@
         <v>337.3447945501591</v>
       </c>
       <c r="I4" t="n">
-        <v>337.3447945501593</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="J4" t="n">
-        <v>692.8008451099397</v>
+        <v>692.8008451099396</v>
       </c>
       <c r="K4" t="n">
         <v>692.8008451099396</v>
@@ -26826,10 +26826,10 @@
         <v>382.3410153900616</v>
       </c>
       <c r="O4" t="n">
-        <v>431.4512280387835</v>
+        <v>431.4512280387834</v>
       </c>
       <c r="P4" t="n">
-        <v>431.4512280387835</v>
+        <v>431.4512280387834</v>
       </c>
     </row>
   </sheetData>
@@ -26923,13 +26923,13 @@
         <v>108.4770562459344</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.21606132209914</v>
+        <v>41.21606132209916</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>108.4770562459344</v>
       </c>
       <c r="M2" t="n">
-        <v>87.06009728056929</v>
+        <v>87.06009728056932</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.33381855150245</v>
+        <v>25.3338185515025</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>355.4560505597804</v>
+        <v>355.4560505597805</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>49.11021264872193</v>
+        <v>49.11021264872181</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>108.4770562459344</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.21606132209914</v>
+        <v>41.21606132209916</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.8279364222928</v>
+        <v>51.28693136788887</v>
       </c>
       <c r="C12" t="n">
         <v>142.8279364222928</v>
@@ -28178,7 +28178,7 @@
         <v>142.8279364222928</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="G12" t="n">
         <v>137.0715778366251</v>
@@ -28187,7 +28187,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>48.04699933617205</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="V12" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>142.8279364222928</v>
       </c>
       <c r="X12" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>142.8279364222928</v>
       </c>
       <c r="J13" t="n">
-        <v>83.90631956943719</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="K13" t="n">
         <v>142.8279364222928</v>
@@ -28278,19 +28278,19 @@
         <v>142.8279364222928</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>8.149808585994677</v>
       </c>
       <c r="N13" t="n">
         <v>142.8279364222928</v>
       </c>
       <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>142.8279364222928</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>67.07142543885081</v>
       </c>
       <c r="R13" t="n">
         <v>142.8279364222928</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>142.8279364222928</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>110.8411262127364</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>142.8279364222928</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>51.286931367889</v>
       </c>
     </row>
     <row r="16">
@@ -28509,25 +28509,25 @@
         <v>142.8279364222928</v>
       </c>
       <c r="K16" t="n">
+        <v>8.149808585994801</v>
+      </c>
+      <c r="L16" t="n">
         <v>142.8279364222928</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="N16" t="n">
-        <v>142.8279364222928</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>142.8279364222928</v>
       </c>
       <c r="P16" t="n">
-        <v>83.90631956943713</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.07142543885081</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="R16" t="n">
         <v>142.8279364222928</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="C17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="D17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="E17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="F17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="G17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I17" t="n">
         <v>190.8814659761525</v>
@@ -28621,16 +28621,16 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="Y17" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>13.02051885922478</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>183.0849515924205</v>
       </c>
     </row>
     <row r="19">
@@ -28731,13 +28731,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>80.97049068126105</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7629945620835</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>160.2001804087575</v>
       </c>
       <c r="I19" t="n">
         <v>148.5943503235359</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.07142543885081</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>167.0423658965133</v>
@@ -28776,16 +28776,16 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U19" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W19" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>68.13034307746028</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28880,7 +28880,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>39.10743720488131</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28889,16 +28889,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H21" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,22 +28925,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.27374157744548</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>73.94522507714115</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -29120,13 +29120,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0715778366251</v>
@@ -29135,7 +29135,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29171,19 +29171,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>213.5535405242553</v>
       </c>
       <c r="V24" t="n">
-        <v>45.84019800502836</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.3049926682271</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29199,10 +29199,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>70.39869791435389</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29250,7 +29250,7 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U25" t="n">
-        <v>251.3049926682271</v>
+        <v>26.65425491779956</v>
       </c>
       <c r="V25" t="n">
         <v>251.3049926682271</v>
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>1.743927032810319</v>
+      </c>
+      <c r="C27" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,19 +29399,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.20020494657772</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>149.6931175680335</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="G28" t="n">
         <v>149.6931175680335</v>
@@ -29454,10 +29454,10 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J28" t="n">
-        <v>103.970299054899</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K28" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29472,10 +29472,10 @@
         <v>149.6931175680335</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>12.73973790932857</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.07142543885081</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="R28" t="n">
         <v>149.6931175680335</v>
@@ -29539,7 +29539,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="L29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680339</v>
       </c>
       <c r="M29" t="n">
         <v>149.6931175680335</v>
@@ -29603,7 +29603,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>53.29371128859513</v>
+        <v>136.5674528660406</v>
       </c>
       <c r="H30" t="n">
         <v>109.6090828455255</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29654,10 +29654,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>149.6931175680335</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,13 +29673,13 @@
         <v>149.6931175680335</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="G31" t="n">
         <v>149.6931175680335</v>
@@ -29697,19 +29697,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="M31" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="N31" t="n">
-        <v>26.72964404195949</v>
+        <v>18.12077502557156</v>
       </c>
       <c r="O31" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="P31" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>67.07142543885081</v>
@@ -29773,7 +29773,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="K32" t="n">
-        <v>149.693117568034</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="L32" t="n">
         <v>149.6931175680335</v>
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29837,13 +29837,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>104.4810527002914</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>80.03380954572833</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.27374157744548</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>48.66980611394544</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29910,7 +29910,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="E34" t="n">
         <v>149.6931175680335</v>
@@ -29931,25 +29931,25 @@
         <v>77.2406550129398</v>
       </c>
       <c r="K34" t="n">
-        <v>19.19841957539261</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>85.19220046442243</v>
       </c>
       <c r="N34" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>149.6931175680335</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>67.07142543885081</v>
       </c>
       <c r="R34" t="n">
         <v>149.6931175680335</v>
@@ -30071,10 +30071,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0715778366251</v>
@@ -30083,7 +30083,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I36" t="n">
-        <v>55.24468349686332</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.27374157744548</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>79.01743708143292</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>236.7532148486028</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30192,7 +30192,7 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S37" t="n">
-        <v>220.0434448128684</v>
+        <v>39.04804052131371</v>
       </c>
       <c r="T37" t="n">
         <v>226.9714725710416</v>
@@ -30207,7 +30207,7 @@
         <v>236.7532148486028</v>
       </c>
       <c r="X37" t="n">
-        <v>44.7142510974827</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30302,16 +30302,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>141.8776501161684</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0715778366251</v>
@@ -30350,25 +30350,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>183.9928747740406</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30429,7 +30429,7 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S40" t="n">
-        <v>220.0434448128684</v>
+        <v>39.04804052131388</v>
       </c>
       <c r="T40" t="n">
         <v>226.9714725710416</v>
@@ -30441,7 +30441,7 @@
         <v>236.7532148486028</v>
       </c>
       <c r="W40" t="n">
-        <v>55.75781055704834</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>171.0238819607853</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30499,16 +30499,16 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>91.52819823739398</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>117.9425707366228</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="S41" t="n">
-        <v>220.8709720780061</v>
+        <v>197.4382544600136</v>
       </c>
       <c r="T41" t="n">
         <v>220.8709720780061</v>
@@ -30539,16 +30539,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30587,22 +30587,22 @@
         <v>83.27374157744548</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0686223740667</v>
+        <v>165.5830526543425</v>
       </c>
       <c r="U42" t="n">
-        <v>56.19372436055255</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30669,13 +30669,13 @@
         <v>220.0434448128684</v>
       </c>
       <c r="T43" t="n">
-        <v>98.4614799023083</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="U43" t="n">
         <v>220.8709720780061</v>
       </c>
       <c r="V43" t="n">
-        <v>220.8709720780061</v>
+        <v>98.46147990230813</v>
       </c>
       <c r="W43" t="n">
         <v>220.8709720780061</v>
@@ -30715,7 +30715,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="I44" t="n">
-        <v>220.8709720780061</v>
+        <v>190.8814659761525</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30739,13 +30739,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>38.10597451754851</v>
+        <v>194.4565995787773</v>
       </c>
       <c r="R44" t="n">
-        <v>220.8709720780061</v>
+        <v>117.9425707366228</v>
       </c>
       <c r="S44" t="n">
-        <v>220.8709720780061</v>
+        <v>197.4382544600136</v>
       </c>
       <c r="T44" t="n">
         <v>220.8709720780061</v>
@@ -30776,13 +30776,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>71.42379609695786</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30827,22 +30827,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>116.7734778051021</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30909,7 +30909,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U46" t="n">
-        <v>220.8709720780061</v>
+        <v>98.46147990230824</v>
       </c>
       <c r="V46" t="n">
         <v>220.8709720780061</v>
@@ -30918,7 +30918,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="X46" t="n">
-        <v>98.46147990230826</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -35410,10 +35410,10 @@
         <v>31.18804828971061</v>
       </c>
       <c r="K11" t="n">
-        <v>168.7072484538157</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>83.93407987264587</v>
+        <v>252.6413283264616</v>
       </c>
       <c r="M11" t="n">
         <v>308.4120789944218</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.94571145435338</v>
       </c>
       <c r="K12" t="n">
-        <v>170.5360357000628</v>
+        <v>83.72958111508017</v>
       </c>
       <c r="L12" t="n">
-        <v>291.3313881666452</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>337.3447945501591</v>
       </c>
       <c r="N12" t="n">
-        <v>220.5695086928853</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O12" t="n">
         <v>315.9673583817868</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.665664556497395</v>
+        <v>65.587281409353</v>
       </c>
       <c r="K13" t="n">
-        <v>147.0461327571026</v>
+        <v>147.0461327571027</v>
       </c>
       <c r="L13" t="n">
         <v>204.3130831364406</v>
       </c>
       <c r="M13" t="n">
-        <v>75.3215300881962</v>
+        <v>83.47133867419087</v>
       </c>
       <c r="N13" t="n">
         <v>221.8480004141146</v>
       </c>
       <c r="O13" t="n">
-        <v>199.6376790094507</v>
+        <v>56.80974258715789</v>
       </c>
       <c r="P13" t="n">
         <v>24.85228409195577</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>75.75651098344198</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>31.18804828971061</v>
       </c>
       <c r="K14" t="n">
         <v>168.7072484538157</v>
       </c>
       <c r="L14" t="n">
-        <v>115.1221281623565</v>
+        <v>128.8289862845568</v>
       </c>
       <c r="M14" t="n">
         <v>308.4120789944218</v>
@@ -35665,7 +35665,7 @@
         <v>163.6531284303013</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.89490641191095</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>24.94571145435338</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L15" t="n">
         <v>291.3313881666452</v>
       </c>
       <c r="M15" t="n">
-        <v>337.3447945501591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>337.3447945501591</v>
       </c>
       <c r="O15" t="n">
-        <v>315.9673583817868</v>
+        <v>170.365980035114</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.81503838843557</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.58728140935297</v>
+        <v>65.587281409353</v>
       </c>
       <c r="K16" t="n">
-        <v>147.0461327571026</v>
+        <v>12.36800492080468</v>
       </c>
       <c r="L16" t="n">
-        <v>61.48514671414784</v>
+        <v>204.3130831364406</v>
       </c>
       <c r="M16" t="n">
-        <v>75.3215300881962</v>
+        <v>218.149466510489</v>
       </c>
       <c r="N16" t="n">
-        <v>221.8480004141146</v>
+        <v>79.02006399182179</v>
       </c>
       <c r="O16" t="n">
         <v>199.6376790094507</v>
       </c>
       <c r="P16" t="n">
-        <v>108.7586036613929</v>
+        <v>24.85228409195577</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>75.75651098344198</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,16 +35890,16 @@
         <v>262.1009341074108</v>
       </c>
       <c r="M17" t="n">
-        <v>293.8983531899579</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N17" t="n">
         <v>298.6227133666318</v>
       </c>
       <c r="O17" t="n">
-        <v>236.3368816721012</v>
+        <v>58.1700274373361</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>163.6531284303013</v>
       </c>
       <c r="Q17" t="n">
         <v>44.89490641191095</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>133.3112627845751</v>
       </c>
       <c r="L18" t="n">
         <v>291.3313881666452</v>
@@ -35972,16 +35972,16 @@
         <v>337.3447945501591</v>
       </c>
       <c r="N18" t="n">
-        <v>286.2972142477439</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O18" t="n">
-        <v>315.9673583817868</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>31.18804828971061</v>
       </c>
       <c r="K20" t="n">
-        <v>21.72844250876141</v>
+        <v>168.7072484538157</v>
       </c>
       <c r="L20" t="n">
         <v>262.1009341074108</v>
       </c>
       <c r="M20" t="n">
-        <v>308.4120789944218</v>
+        <v>175.1401311715678</v>
       </c>
       <c r="N20" t="n">
         <v>298.6227133666318</v>
@@ -36139,7 +36139,7 @@
         <v>163.6531284303013</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.89490641191095</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>31.18804828971061</v>
       </c>
       <c r="K23" t="n">
-        <v>21.72844250876231</v>
+        <v>168.7072484538157</v>
       </c>
       <c r="L23" t="n">
         <v>262.1009341074108</v>
       </c>
       <c r="M23" t="n">
-        <v>308.4120789944218</v>
+        <v>293.8983531899579</v>
       </c>
       <c r="N23" t="n">
         <v>298.6227133666318</v>
@@ -36373,7 +36373,7 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P23" t="n">
-        <v>163.6531284303013</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>44.89490641191095</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.94571145435338</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>170.5360357000628</v>
@@ -36443,16 +36443,16 @@
         <v>291.3313881666452</v>
       </c>
       <c r="M24" t="n">
-        <v>337.3447945501593</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N24" t="n">
-        <v>337.3447945501593</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>69.43803092495575</v>
+        <v>94.38374237930874</v>
       </c>
       <c r="Q24" t="n">
         <v>104.8083301452043</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.077644549821144</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.259154921464329</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.272069545102255</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>26.72964404195922</v>
+        <v>72.4524625550937</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9113139028434</v>
+        <v>4.218196334809878</v>
       </c>
       <c r="L28" t="n">
         <v>61.48514671414784</v>
@@ -36768,10 +36768,10 @@
         <v>206.5028601551914</v>
       </c>
       <c r="P28" t="n">
-        <v>24.85228409195577</v>
+        <v>37.59202200128435</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.62169212918269</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>318.4003660218492</v>
       </c>
       <c r="L29" t="n">
-        <v>411.7940516754443</v>
+        <v>411.7940516754447</v>
       </c>
       <c r="M29" t="n">
         <v>458.1051965624553</v>
@@ -36853,7 +36853,7 @@
         <v>194.5880239799444</v>
       </c>
       <c r="R29" t="n">
-        <v>31.75054683141066</v>
+        <v>31.75054683141069</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.077644549821144</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.259154921464329</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.272069545102255</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>4.218196334809878</v>
       </c>
       <c r="L31" t="n">
-        <v>61.48514671414784</v>
+        <v>211.1782642821813</v>
       </c>
       <c r="M31" t="n">
         <v>225.0146476562297</v>
       </c>
       <c r="N31" t="n">
-        <v>105.7497080337813</v>
+        <v>97.14083901739335</v>
       </c>
       <c r="O31" t="n">
         <v>206.5028601551914</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5454016599892</v>
+        <v>24.85228409195577</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>180.8811658577441</v>
       </c>
       <c r="K32" t="n">
-        <v>318.4003660218497</v>
+        <v>318.4003660218492</v>
       </c>
       <c r="L32" t="n">
         <v>411.7940516754443</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.077644549821144</v>
       </c>
       <c r="E34" t="n">
         <v>3.259154921464329</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>23.41661591020249</v>
+        <v>4.218196334809878</v>
       </c>
       <c r="L34" t="n">
-        <v>61.48514671414784</v>
+        <v>211.1782642821813</v>
       </c>
       <c r="M34" t="n">
-        <v>75.3215300881962</v>
+        <v>160.5137305526186</v>
       </c>
       <c r="N34" t="n">
-        <v>228.7131815598553</v>
+        <v>79.02006399182179</v>
       </c>
       <c r="O34" t="n">
         <v>206.5028601551914</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5454016599893</v>
+        <v>24.85228409195577</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.62169212918269</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>308.4120789944218</v>
       </c>
       <c r="N35" t="n">
-        <v>298.6227133666318</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O35" t="n">
         <v>236.3368816721012</v>
@@ -37391,10 +37391,10 @@
         <v>291.3313881666452</v>
       </c>
       <c r="M36" t="n">
-        <v>117.3232966477474</v>
+        <v>382.3410153900616</v>
       </c>
       <c r="N36" t="n">
-        <v>382.3410153900616</v>
+        <v>12.51496650254329</v>
       </c>
       <c r="O36" t="n">
         <v>315.9673583817868</v>
@@ -37403,7 +37403,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>291.3313881666452</v>
+        <v>67.09566352483631</v>
       </c>
       <c r="M39" t="n">
         <v>382.3410153900616</v>
       </c>
       <c r="N39" t="n">
-        <v>158.1052907482527</v>
+        <v>382.3410153900616</v>
       </c>
       <c r="O39" t="n">
         <v>315.9673583817868</v>
@@ -37780,7 +37780,7 @@
         <v>31.18804828971061</v>
       </c>
       <c r="K41" t="n">
-        <v>339.731130414601</v>
+        <v>168.7072484538157</v>
       </c>
       <c r="L41" t="n">
         <v>262.1009341074108</v>
@@ -37795,16 +37795,16 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P41" t="n">
-        <v>163.6531284303013</v>
+        <v>255.1813266676953</v>
       </c>
       <c r="Q41" t="n">
         <v>44.89490641191095</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.9284013413833</v>
       </c>
       <c r="S41" t="n">
-        <v>23.4327176179925</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.94571145435338</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L42" t="n">
         <v>291.3313881666452</v>
@@ -37868,7 +37868,7 @@
         <v>392.474253059768</v>
       </c>
       <c r="N42" t="n">
-        <v>418.7275487830124</v>
+        <v>171.8926169572608</v>
       </c>
       <c r="O42" t="n">
         <v>315.9673583817868</v>
@@ -37877,7 +37877,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.45514547386917</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.9895061018536</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>31.18804828971061</v>
@@ -38035,13 +38035,13 @@
         <v>163.6531284303013</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.00088092945946</v>
+        <v>239.3515059906882</v>
       </c>
       <c r="R44" t="n">
-        <v>102.9284013413833</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.4327176179925</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>24.94571145435338</v>
       </c>
       <c r="K45" t="n">
-        <v>53.45514547386919</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>291.3313881666452</v>
+        <v>215.0324920409564</v>
       </c>
       <c r="M45" t="n">
         <v>392.474253059768</v>
@@ -38114,7 +38114,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
